--- a/public/assets/data/Business License.xlsx
+++ b/public/assets/data/Business License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1D1B74-7864-E241-985C-0BE35B790538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A68843-ED17-7340-8C35-B22AFF814262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="1940" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
   <si>
     <t>No.</t>
   </si>
@@ -657,6 +657,30 @@
   </si>
   <si>
     <t>RUJ11342343</t>
+  </si>
+  <si>
+    <t>5.332470959481043, 103.12465239038612</t>
+  </si>
+  <si>
+    <t>5.331587711632765, 103.12652388408893</t>
+  </si>
+  <si>
+    <t>5.32993356565529, 103.12254026797541</t>
+  </si>
+  <si>
+    <t>5.332338587816308, 103.12708888268659</t>
+  </si>
+  <si>
+    <t>5.333279353145524, 103.12721647865084</t>
+  </si>
+  <si>
+    <t>5.332726041891826, 103.12624716808838</t>
+  </si>
+  <si>
+    <t>5.326415824338957, 103.11936273696678</t>
+  </si>
+  <si>
+    <t>5.331226126253645, 103.12266049253667</t>
   </si>
 </sst>
 </file>
@@ -797,19 +821,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB918-6CF2-C84C-BA02-622A62B1D029}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,10 +1190,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1183,16 +1207,16 @@
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>212690</v>
-      </c>
-      <c r="G2" s="20">
+        <v>190750</v>
+      </c>
+      <c r="G2" s="22">
         <f ca="1">F2+F3+F4</f>
-        <v>602342</v>
+        <v>622151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1201,17 +1225,17 @@
       </c>
       <c r="E3" s="3">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F61" ca="1" si="0">RANDBETWEEN(100000,350000)</f>
-        <v>269940</v>
-      </c>
-      <c r="G3" s="20"/>
+        <v>172762</v>
+      </c>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1220,19 +1244,19 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E61" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>119712</v>
-      </c>
-      <c r="G4" s="20"/>
+        <v>258639</v>
+      </c>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1240,66 +1264,66 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">RANDBETWEEN(80,300)</f>
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>196047</v>
-      </c>
-      <c r="G5" s="20">
+        <v>151123</v>
+      </c>
+      <c r="G5" s="22">
         <f t="shared" ref="G5" ca="1" si="2">F5+F6+F7</f>
-        <v>737287</v>
+        <v>556617</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D61" ca="1" si="3">RANDBETWEEN(80,300)</f>
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>227778</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>239287</v>
+      </c>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>313462</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>166207</v>
+      </c>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1307,66 +1331,66 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>340245</v>
-      </c>
-      <c r="G8" s="20">
+        <v>275660</v>
+      </c>
+      <c r="G8" s="22">
         <f t="shared" ref="G8" ca="1" si="4">F8+F9+F10</f>
-        <v>703651</v>
+        <v>720641</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>138822</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>240656</v>
+      </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>224584</v>
-      </c>
-      <c r="G10" s="20"/>
+        <v>204325</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1374,66 +1398,66 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>123315</v>
-      </c>
-      <c r="G11" s="20">
+        <v>273003</v>
+      </c>
+      <c r="G11" s="22">
         <f t="shared" ref="G11" ca="1" si="5">F11+F12+F13</f>
-        <v>341330</v>
+        <v>828772</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>101894</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>255297</v>
+      </c>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>116121</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>300472</v>
+      </c>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1441,66 +1465,66 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>296983</v>
-      </c>
-      <c r="G14" s="20">
+        <v>138067</v>
+      </c>
+      <c r="G14" s="22">
         <f t="shared" ref="G14" ca="1" si="6">F14+F15+F16</f>
-        <v>579791</v>
+        <v>673503</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>164715</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>294174</v>
+      </c>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>118093</v>
-      </c>
-      <c r="G16" s="20"/>
+        <v>241262</v>
+      </c>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>6</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1508,66 +1532,66 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>341483</v>
-      </c>
-      <c r="G17" s="20">
+        <v>109706</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" ref="G17" ca="1" si="7">F17+F18+F19</f>
-        <v>803705</v>
+        <v>524309</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>274539</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>260401</v>
+      </c>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>187683</v>
-      </c>
-      <c r="G19" s="20"/>
+        <v>154202</v>
+      </c>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>7</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1575,66 +1599,66 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>331864</v>
-      </c>
-      <c r="G20" s="20">
+        <v>258086</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" ref="G20" ca="1" si="8">F20+F21+F22</f>
-        <v>830598</v>
+        <v>583564</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>159334</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>111700</v>
+      </c>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>339400</v>
-      </c>
-      <c r="G22" s="20"/>
+        <v>213778</v>
+      </c>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="19">
         <v>8</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1642,66 +1666,66 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>263050</v>
-      </c>
-      <c r="G23" s="20">
+        <v>257769</v>
+      </c>
+      <c r="G23" s="22">
         <f t="shared" ref="G23" ca="1" si="9">F23+F24+F25</f>
-        <v>714892</v>
+        <v>743160</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>347616</v>
-      </c>
-      <c r="G24" s="20"/>
+        <v>160379</v>
+      </c>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>104226</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>325012</v>
+      </c>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="19">
         <v>9</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1709,66 +1733,66 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>284380</v>
-      </c>
-      <c r="G26" s="20">
+        <v>242201</v>
+      </c>
+      <c r="G26" s="22">
         <f t="shared" ref="G26" ca="1" si="10">F26+F27+F28</f>
-        <v>751871</v>
+        <v>731080</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>254633</v>
-      </c>
-      <c r="G27" s="20"/>
+        <v>239904</v>
+      </c>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>212858</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>248975</v>
+      </c>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="A29" s="19">
         <v>10</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1776,66 +1800,66 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>281006</v>
-      </c>
-      <c r="G29" s="20">
+        <v>167295</v>
+      </c>
+      <c r="G29" s="22">
         <f t="shared" ref="G29" ca="1" si="11">F29+F30+F31</f>
-        <v>610820</v>
+        <v>606017</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>132144</v>
-      </c>
-      <c r="G30" s="20"/>
+        <v>139109</v>
+      </c>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>197670</v>
-      </c>
-      <c r="G31" s="20"/>
+        <v>299613</v>
+      </c>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>11</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1843,66 +1867,66 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>137605</v>
-      </c>
-      <c r="G32" s="20">
+        <v>249541</v>
+      </c>
+      <c r="G32" s="22">
         <f t="shared" ref="G32" ca="1" si="12">F32+F33+F34</f>
-        <v>760608</v>
+        <v>910946</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>298890</v>
-      </c>
-      <c r="G33" s="20"/>
+        <v>339591</v>
+      </c>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>324113</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>321814</v>
+      </c>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+      <c r="A35" s="19">
         <v>12</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1910,66 +1934,66 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>347303</v>
-      </c>
-      <c r="G35" s="20">
+        <v>111236</v>
+      </c>
+      <c r="G35" s="22">
         <f t="shared" ref="G35" ca="1" si="13">F35+F36+F37</f>
-        <v>906573</v>
+        <v>506142</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>336003</v>
-      </c>
-      <c r="G36" s="20"/>
+        <v>183015</v>
+      </c>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>223267</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>211891</v>
+      </c>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="A38" s="19">
         <v>13</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1977,66 +2001,66 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>231893</v>
-      </c>
-      <c r="G38" s="20">
+        <v>296534</v>
+      </c>
+      <c r="G38" s="22">
         <f t="shared" ref="G38" ca="1" si="14">F38+F39+F40</f>
-        <v>713748</v>
+        <v>879351</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>302616</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>303428</v>
+      </c>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>179239</v>
-      </c>
-      <c r="G40" s="20"/>
+        <v>279389</v>
+      </c>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+      <c r="A41" s="19">
         <v>14</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2044,66 +2068,66 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>178926</v>
-      </c>
-      <c r="G41" s="20">
+        <v>241288</v>
+      </c>
+      <c r="G41" s="22">
         <f t="shared" ref="G41" ca="1" si="15">F41+F42+F43</f>
-        <v>650357</v>
+        <v>580552</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>144624</v>
-      </c>
-      <c r="G42" s="20"/>
+        <v>112636</v>
+      </c>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>326807</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>226628</v>
+      </c>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="A44" s="19">
         <v>15</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2111,66 +2135,66 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>328355</v>
-      </c>
-      <c r="G44" s="20">
+        <v>212157</v>
+      </c>
+      <c r="G44" s="22">
         <f t="shared" ref="G44" ca="1" si="16">F44+F45+F46</f>
-        <v>817246</v>
+        <v>821360</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>214099</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>347042</v>
+      </c>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>262161</v>
+      </c>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
         <v>16</v>
       </c>
-      <c r="F46" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>274792</v>
-      </c>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
-        <v>16</v>
-      </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2178,66 +2202,66 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>252320</v>
-      </c>
-      <c r="G47" s="20">
+        <v>334077</v>
+      </c>
+      <c r="G47" s="22">
         <f t="shared" ref="G47" ca="1" si="17">F47+F48+F49</f>
-        <v>787199</v>
+        <v>680379</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>327612</v>
-      </c>
-      <c r="G48" s="20"/>
+        <v>137999</v>
+      </c>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>207267</v>
-      </c>
-      <c r="G49" s="20"/>
+        <v>208303</v>
+      </c>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="A50" s="20">
         <v>17</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2245,50 +2269,50 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>180856</v>
-      </c>
-      <c r="G50" s="19">
+        <v>326107</v>
+      </c>
+      <c r="G50" s="23">
         <f t="shared" ref="G50" ca="1" si="18">F50+F51+F52</f>
-        <v>657410</v>
+        <v>827643</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>145288</v>
-      </c>
-      <c r="G51" s="19"/>
+        <v>253770</v>
+      </c>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="1"/>
@@ -2296,15 +2320,15 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>331266</v>
-      </c>
-      <c r="G52" s="19"/>
+        <v>247766</v>
+      </c>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
+      <c r="A53" s="19">
         <v>18</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2312,66 +2336,66 @@
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>304446</v>
-      </c>
-      <c r="G53" s="20">
+        <v>120560</v>
+      </c>
+      <c r="G53" s="22">
         <f t="shared" ref="G53" ca="1" si="19">F53+F54+F55</f>
-        <v>869358</v>
+        <v>747480</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>298029</v>
-      </c>
-      <c r="G54" s="20"/>
+        <v>304142</v>
+      </c>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>266883</v>
-      </c>
-      <c r="G55" s="20"/>
+        <v>322778</v>
+      </c>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
+      <c r="A56" s="19">
         <v>19</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2379,66 +2403,66 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>269694</v>
-      </c>
-      <c r="G56" s="20">
+        <v>206211</v>
+      </c>
+      <c r="G56" s="22">
         <f t="shared" ref="G56" ca="1" si="20">F56+F57+F58</f>
-        <v>786927</v>
+        <v>460167</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>203556</v>
-      </c>
-      <c r="G57" s="20"/>
+        <v>110699</v>
+      </c>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>313677</v>
-      </c>
-      <c r="G58" s="20"/>
+        <v>143257</v>
+      </c>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="21">
+      <c r="A59" s="19">
         <v>20</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2446,100 +2470,80 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>291543</v>
-      </c>
-      <c r="G59" s="20">
+        <v>251386</v>
+      </c>
+      <c r="G59" s="22">
         <f t="shared" ref="G59" ca="1" si="21">F59+F60+F61</f>
-        <v>879638</v>
+        <v>606585</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>330202</v>
-      </c>
-      <c r="G60" s="20"/>
+        <v>197856</v>
+      </c>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>257893</v>
-      </c>
-      <c r="G61" s="20"/>
+        <v>157343</v>
+      </c>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
@@ -2552,20 +2556,40 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2574,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF643C-5C0E-744E-967C-222C017A8BAB}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:AB1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2601,18 +2625,19 @@
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" customWidth="1"/>
-    <col min="22" max="22" width="35.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="45.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.1640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.1640625" customWidth="1"/>
+    <col min="23" max="23" width="35.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2670,35 +2695,38 @@
       <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2756,35 +2784,38 @@
       <c r="S2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2842,35 +2873,38 @@
       <c r="S3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2928,35 +2962,38 @@
       <c r="S4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="X4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3014,35 +3051,38 @@
       <c r="S5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="W5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3100,35 +3140,38 @@
       <c r="S6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="W6" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="X6" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3186,35 +3229,38 @@
       <c r="S7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3272,35 +3318,38 @@
       <c r="S8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3358,35 +3407,38 @@
       <c r="S9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="X9" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3444,35 +3496,38 @@
       <c r="S10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3530,35 +3585,38 @@
       <c r="S11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="W11" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="X11" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3616,35 +3674,38 @@
       <c r="S12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3702,31 +3763,34 @@
       <c r="S13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="W13" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="X13" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3741,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298924D2-CAB1-6D49-8BED-F5FA94BDC813}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/assets/data/Business License.xlsx
+++ b/public/assets/data/Business License.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Web Dev\React\tax-system\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A68843-ED17-7340-8C35-B22AFF814262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B88190-F636-4F05-8DC7-71965C1DF802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
-    <sheet name="ExpiredLicense Account Details " sheetId="2" r:id="rId2"/>
-    <sheet name="Tax Assessment" sheetId="3" r:id="rId3"/>
+    <sheet name="Tax" sheetId="4" r:id="rId2"/>
+    <sheet name="ExpiredLicense Account Details " sheetId="2" r:id="rId3"/>
+    <sheet name="Tax Assessment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="228">
   <si>
     <t>No.</t>
   </si>
@@ -569,6 +578,81 @@
     <t>5.336923958081687, 103.12622614284516</t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
+  </si>
+  <si>
+    <t>RUJ23902340</t>
+  </si>
+  <si>
+    <t>RUJ90979322</t>
+  </si>
+  <si>
+    <t>RUJ78273843</t>
+  </si>
+  <si>
+    <t>RUJ59898342</t>
+  </si>
+  <si>
+    <t>RUJ89789723</t>
+  </si>
+  <si>
+    <t>RUJ80789235</t>
+  </si>
+  <si>
+    <t>RUJ12384989</t>
+  </si>
+  <si>
+    <t>RUJ98098923</t>
+  </si>
+  <si>
+    <t>RUJ99898423</t>
+  </si>
+  <si>
+    <t>RUJ11342343</t>
+  </si>
+  <si>
+    <t>5.332470959481043, 103.12465239038612</t>
+  </si>
+  <si>
+    <t>5.331587711632765, 103.12652388408893</t>
+  </si>
+  <si>
+    <t>5.32993356565529, 103.12254026797541</t>
+  </si>
+  <si>
+    <t>5.332338587816308, 103.12708888268659</t>
+  </si>
+  <si>
+    <t>5.333279353145524, 103.12721647865084</t>
+  </si>
+  <si>
+    <t>5.332726041891826, 103.12624716808838</t>
+  </si>
+  <si>
+    <t>5.326415824338957, 103.11936273696678</t>
+  </si>
+  <si>
+    <t>5.331226126253645, 103.12266049253667</t>
+  </si>
+  <si>
+    <t>Total Assessment Case</t>
+  </si>
+  <si>
+    <t>Accumulated Overdue Amount</t>
+  </si>
+  <si>
+    <t>Current Year Collection</t>
+  </si>
+  <si>
+    <t>Current Overdue Amount</t>
+  </si>
+  <si>
+    <t>Total Overdue Case</t>
+  </si>
+  <si>
     <t>780122-45-1238</t>
   </si>
   <si>
@@ -623,64 +707,19 @@
     <t>6109-6803397</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Unpaid</t>
-  </si>
-  <si>
-    <t>RUJ23902340</t>
-  </si>
-  <si>
-    <t>RUJ90979322</t>
-  </si>
-  <si>
-    <t>RUJ78273843</t>
-  </si>
-  <si>
-    <t>RUJ59898342</t>
-  </si>
-  <si>
-    <t>RUJ89789723</t>
-  </si>
-  <si>
-    <t>RUJ80789235</t>
-  </si>
-  <si>
-    <t>RUJ12384989</t>
-  </si>
-  <si>
-    <t>RUJ98098923</t>
-  </si>
-  <si>
-    <t>RUJ99898423</t>
-  </si>
-  <si>
-    <t>RUJ11342343</t>
-  </si>
-  <si>
-    <t>5.332470959481043, 103.12465239038612</t>
-  </si>
-  <si>
-    <t>5.331587711632765, 103.12652388408893</t>
-  </si>
-  <si>
-    <t>5.32993356565529, 103.12254026797541</t>
-  </si>
-  <si>
-    <t>5.332338587816308, 103.12708888268659</t>
-  </si>
-  <si>
-    <t>5.333279353145524, 103.12721647865084</t>
-  </si>
-  <si>
-    <t>5.332726041891826, 103.12624716808838</t>
-  </si>
-  <si>
-    <t>5.326415824338957, 103.11936273696678</t>
-  </si>
-  <si>
-    <t>5.331226126253645, 103.12266049253667</t>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C13</t>
   </si>
 </sst>
 </file>
@@ -688,8 +727,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;RM&quot;#,##0_);[Red]\(&quot;RM&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;RM&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;RM&quot;#,##0_);[Red]\(&quot;RM&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;RM&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -735,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -769,11 +808,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,20 +838,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,16 +863,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,11 +894,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,11 +1219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB918-6CF2-C84C-BA02-622A62B1D029}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
@@ -1166,7 +1233,7 @@
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,11 +1256,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1207,16 +1274,16 @@
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>190750</v>
-      </c>
-      <c r="G2" s="22">
+        <v>161012</v>
+      </c>
+      <c r="G2" s="26">
         <f ca="1">F2+F3+F4</f>
-        <v>622151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+        <v>667757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1225,17 +1292,17 @@
       </c>
       <c r="E3" s="3">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F61" ca="1" si="0">RANDBETWEEN(100000,350000)</f>
-        <v>172762</v>
-      </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+        <v>254849</v>
+      </c>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1244,19 +1311,19 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E61" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>258639</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+        <v>251896</v>
+      </c>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1264,66 +1331,66 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">RANDBETWEEN(80,300)</f>
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>151123</v>
-      </c>
-      <c r="G5" s="22">
+        <v>349616</v>
+      </c>
+      <c r="G5" s="26">
         <f t="shared" ref="G5" ca="1" si="2">F5+F6+F7</f>
-        <v>556617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+        <v>976650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D61" ca="1" si="3">RANDBETWEEN(80,300)</f>
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>239287</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+        <v>314237</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>166207</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+        <v>312797</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1331,66 +1398,66 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>275660</v>
-      </c>
-      <c r="G8" s="22">
+        <v>302328</v>
+      </c>
+      <c r="G8" s="26">
         <f t="shared" ref="G8" ca="1" si="4">F8+F9+F10</f>
-        <v>720641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+        <v>715741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>240656</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+        <v>234509</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>204325</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+        <v>178904</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1398,66 +1465,66 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>273003</v>
-      </c>
-      <c r="G11" s="22">
+        <v>203825</v>
+      </c>
+      <c r="G11" s="26">
         <f t="shared" ref="G11" ca="1" si="5">F11+F12+F13</f>
-        <v>828772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+        <v>583855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>255297</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+        <v>182383</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>300472</v>
-      </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+        <v>197647</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1465,66 +1532,66 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>138067</v>
-      </c>
-      <c r="G14" s="22">
+        <v>181148</v>
+      </c>
+      <c r="G14" s="26">
         <f t="shared" ref="G14" ca="1" si="6">F14+F15+F16</f>
-        <v>673503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+        <v>587822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>294174</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+        <v>167506</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>241262</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+        <v>239168</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1536,62 +1603,62 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>109706</v>
-      </c>
-      <c r="G17" s="22">
+        <v>243902</v>
+      </c>
+      <c r="G17" s="26">
         <f t="shared" ref="G17" ca="1" si="7">F17+F18+F19</f>
-        <v>524309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+        <v>633064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>260401</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+        <v>270587</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>154202</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+        <v>118575</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
         <v>7</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1599,66 +1666,66 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>258086</v>
-      </c>
-      <c r="G20" s="22">
+        <v>154892</v>
+      </c>
+      <c r="G20" s="26">
         <f t="shared" ref="G20" ca="1" si="8">F20+F21+F22</f>
-        <v>583564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+        <v>582368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>111700</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+        <v>327251</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>213778</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+        <v>100225</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="23">
         <v>8</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1666,66 +1733,66 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>257769</v>
-      </c>
-      <c r="G23" s="22">
+        <v>179946</v>
+      </c>
+      <c r="G23" s="26">
         <f t="shared" ref="G23" ca="1" si="9">F23+F24+F25</f>
-        <v>743160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+        <v>518001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>160379</v>
-      </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+        <v>174253</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>325012</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+        <v>163802</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
         <v>9</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1733,66 +1800,66 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>242201</v>
-      </c>
-      <c r="G26" s="22">
+        <v>218519</v>
+      </c>
+      <c r="G26" s="26">
         <f t="shared" ref="G26" ca="1" si="10">F26+F27+F28</f>
-        <v>731080</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
+        <v>610833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>239904</v>
-      </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21"/>
+        <v>248162</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>248975</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
+        <v>144152</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1800,66 +1867,66 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>167295</v>
-      </c>
-      <c r="G29" s="22">
+        <v>256246</v>
+      </c>
+      <c r="G29" s="26">
         <f t="shared" ref="G29" ca="1" si="11">F29+F30+F31</f>
-        <v>606017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+        <v>755622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>139109</v>
-      </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+        <v>311327</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>299613</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+        <v>188049</v>
+      </c>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="23">
         <v>11</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1867,66 +1934,66 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>249541</v>
-      </c>
-      <c r="G32" s="22">
+        <v>129121</v>
+      </c>
+      <c r="G32" s="26">
         <f t="shared" ref="G32" ca="1" si="12">F32+F33+F34</f>
-        <v>910946</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+        <v>564086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>339591</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+        <v>223992</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>321814</v>
-      </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
+        <v>210973</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="23">
         <v>12</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1934,66 +2001,66 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>111236</v>
-      </c>
-      <c r="G35" s="22">
+        <v>300835</v>
+      </c>
+      <c r="G35" s="26">
         <f t="shared" ref="G35" ca="1" si="13">F35+F36+F37</f>
-        <v>506142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+        <v>713367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>183015</v>
-      </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+        <v>134337</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>211891</v>
-      </c>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
+        <v>278195</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="23">
         <v>13</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2001,66 +2068,66 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>296534</v>
-      </c>
-      <c r="G38" s="22">
+        <v>223309</v>
+      </c>
+      <c r="G38" s="26">
         <f t="shared" ref="G38" ca="1" si="14">F38+F39+F40</f>
-        <v>879351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+        <v>596264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>303428</v>
-      </c>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+        <v>117086</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>279389</v>
-      </c>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+        <v>255869</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="23">
         <v>14</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2068,66 +2135,66 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>241288</v>
-      </c>
-      <c r="G41" s="22">
+        <v>136189</v>
+      </c>
+      <c r="G41" s="26">
         <f t="shared" ref="G41" ca="1" si="15">F41+F42+F43</f>
-        <v>580552</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+        <v>356541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>112636</v>
-      </c>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
+        <v>113571</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>226628</v>
-      </c>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+        <v>106781</v>
+      </c>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="23">
         <v>15</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2135,66 +2202,66 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>212157</v>
-      </c>
-      <c r="G44" s="22">
+        <v>151049</v>
+      </c>
+      <c r="G44" s="26">
         <f t="shared" ref="G44" ca="1" si="16">F44+F45+F46</f>
-        <v>821360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+        <v>443701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>347042</v>
-      </c>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+        <v>141708</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>262161</v>
-      </c>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
+        <v>150944</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="23">
         <v>16</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2202,66 +2269,66 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>334077</v>
-      </c>
-      <c r="G47" s="22">
+        <v>266910</v>
+      </c>
+      <c r="G47" s="26">
         <f t="shared" ref="G47" ca="1" si="17">F47+F48+F49</f>
-        <v>680379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+        <v>524866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>137999</v>
-      </c>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+        <v>100403</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>208303</v>
-      </c>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="20">
+        <v>157553</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="24">
         <v>17</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2269,66 +2336,66 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>326107</v>
-      </c>
-      <c r="G50" s="23">
+        <v>297821</v>
+      </c>
+      <c r="G50" s="27">
         <f t="shared" ref="G50" ca="1" si="18">F50+F51+F52</f>
-        <v>827643</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+        <v>867434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>253770</v>
-      </c>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+        <v>264660</v>
+      </c>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>247766</v>
-      </c>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="19">
+        <v>304953</v>
+      </c>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="23">
         <v>18</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2336,66 +2403,66 @@
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>120560</v>
-      </c>
-      <c r="G53" s="22">
+        <v>197027</v>
+      </c>
+      <c r="G53" s="26">
         <f t="shared" ref="G53" ca="1" si="19">F53+F54+F55</f>
-        <v>747480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
+        <v>799240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>304142</v>
-      </c>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
+        <v>327683</v>
+      </c>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>322778</v>
-      </c>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+        <v>274530</v>
+      </c>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="23">
         <v>19</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2403,66 +2470,66 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>206211</v>
-      </c>
-      <c r="G56" s="22">
+        <v>136591</v>
+      </c>
+      <c r="G56" s="26">
         <f t="shared" ref="G56" ca="1" si="20">F56+F57+F58</f>
-        <v>460167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
+        <v>578804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>110699</v>
-      </c>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
+        <v>314408</v>
+      </c>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>143257</v>
-      </c>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
+        <v>127805</v>
+      </c>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="23">
         <v>20</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2470,62 +2537,62 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>251386</v>
-      </c>
-      <c r="G59" s="22">
+        <v>324622</v>
+      </c>
+      <c r="G59" s="26">
         <f t="shared" ref="G59" ca="1" si="21">F59+F60+F61</f>
-        <v>606585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
+        <v>636060</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>197856</v>
-      </c>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
+        <v>132775</v>
+      </c>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>157343</v>
-      </c>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>178663</v>
+      </c>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
   </sheetData>
@@ -2564,21 +2631,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A32:A34"/>
@@ -2597,14 +2664,626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF643C-5C0E-744E-967C-222C017A8BAB}">
-  <dimension ref="A1:AC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D7D46-21B7-054F-A2A5-55DC0853579C}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <f ca="1">RANDBETWEEN(2000,12000)</f>
+        <v>11175</v>
+      </c>
+      <c r="D2" s="3">
+        <f ca="1">RANDBETWEEN(100,1000)</f>
+        <v>146</v>
+      </c>
+      <c r="E2" s="6">
+        <f ca="1">RANDBETWEEN(100000,350000)</f>
+        <v>194207</v>
+      </c>
+      <c r="F2" s="6">
+        <f ca="1">RANDBETWEEN(100000,350000)</f>
+        <v>341541</v>
+      </c>
+      <c r="G2" s="19">
+        <f ca="1">RANDBETWEEN(300000,800000)</f>
+        <v>480155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(2000,12000)</f>
+        <v>8165</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D21" ca="1" si="1">RANDBETWEEN(100,1000)</f>
+        <v>435</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:F21" ca="1" si="2">RANDBETWEEN(100000,350000)</f>
+        <v>321823</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>294540</v>
+      </c>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G21" ca="1" si="3">RANDBETWEEN(300000,800000)</f>
+        <v>722145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8362</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>944</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>268612</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>276958</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>753066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>236983</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>246119</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>621793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6539</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>592</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>320883</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>288552</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>474031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8655</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>912</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>204844</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>180780</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>358435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8008</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>897</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>264932</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>260792</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>480658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6018</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>171912</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>118203</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>378192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2464</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>814</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>324293</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>272958</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>450126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2734</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>201486</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>242142</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>688686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6682</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>341859</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>326133</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>631910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5093</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>154563</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>112365</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>352422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8222</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>278536</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>146495</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>577599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8680</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>245876</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>332435</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>642050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3149</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>142682</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>198839</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>653068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4936</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>306228</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>161994</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>302017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6597</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>847</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>230542</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>309389</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>316871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2792</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>186093</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>112320</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>508530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8643</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>127478</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>140554</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>666007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6724</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>872</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>250466</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>142068</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>426197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF643C-5C0E-744E-967C-222C017A8BAB}">
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -2637,7 +3316,7 @@
     <col min="29" max="29" width="10.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2725,8 +3404,11 @@
       <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2793,10 +3475,10 @@
       <c r="V2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>145</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -2814,8 +3496,11 @@
       <c r="AC2" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2874,7 +3559,7 @@
         <v>124</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>126</v>
@@ -2882,7 +3567,7 @@
       <c r="V3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="14" t="s">
         <v>144</v>
       </c>
       <c r="X3" s="14" t="s">
@@ -2903,8 +3588,11 @@
       <c r="AC3" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2963,7 +3651,7 @@
         <v>125</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>126</v>
@@ -2971,10 +3659,10 @@
       <c r="V4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>146</v>
       </c>
       <c r="Y4" s="3" t="s">
@@ -2992,8 +3680,11 @@
       <c r="AC4" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3060,10 +3751,10 @@
       <c r="V5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="17" t="s">
         <v>152</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -3081,8 +3772,11 @@
       <c r="AC5" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3149,10 +3843,10 @@
       <c r="V6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="17" t="s">
         <v>153</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -3170,8 +3864,11 @@
       <c r="AC6" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3230,7 +3927,7 @@
         <v>123</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>126</v>
@@ -3238,10 +3935,10 @@
       <c r="V7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="16" t="s">
         <v>147</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -3259,8 +3956,11 @@
       <c r="AC7" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3319,7 +4019,7 @@
         <v>124</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>126</v>
@@ -3327,10 +4027,10 @@
       <c r="V8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="16" t="s">
         <v>148</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -3348,8 +4048,11 @@
       <c r="AC8" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3408,7 +4111,7 @@
         <v>125</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>126</v>
@@ -3416,10 +4119,10 @@
       <c r="V9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="16" t="s">
         <v>149</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -3437,8 +4140,11 @@
       <c r="AC9" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3497,7 +4203,7 @@
         <v>125</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>126</v>
@@ -3505,10 +4211,10 @@
       <c r="V10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="17" t="s">
         <v>154</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -3526,8 +4232,11 @@
       <c r="AC10" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3594,10 +4303,10 @@
       <c r="V11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="17" t="s">
         <v>155</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -3615,8 +4324,11 @@
       <c r="AC11" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3675,7 +4387,7 @@
         <v>125</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>126</v>
@@ -3683,10 +4395,10 @@
       <c r="V12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="16" t="s">
         <v>150</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -3704,8 +4416,11 @@
       <c r="AC12" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3764,7 +4479,7 @@
         <v>123</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>126</v>
@@ -3772,10 +4487,10 @@
       <c r="V13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="16" t="s">
         <v>151</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3792,6 +4507,9 @@
       </c>
       <c r="AC13" s="3" t="s">
         <v>129</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3801,15 +4519,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298924D2-CAB1-6D49-8BED-F5FA94BDC813}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -3827,7 +4545,7 @@
     <col min="14" max="14" width="14.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3871,18 +4589,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="28">
         <v>1122334455</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E2" s="4">
         <v>129834985</v>
@@ -3891,7 +4609,7 @@
         <v>2021</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H2" s="15">
         <v>600</v>
@@ -3902,31 +4620,31 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="28">
         <v>1122334455</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>168</v>
+      <c r="C3" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E3" s="4">
         <v>345938983</v>
@@ -3935,7 +4653,7 @@
         <v>2022</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H3" s="15">
         <v>600</v>
@@ -3946,31 +4664,31 @@
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="28">
         <v>2233445566</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="28" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4">
         <v>398973454</v>
@@ -3979,7 +4697,7 @@
         <v>2021</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H4" s="15">
         <v>600</v>
@@ -3990,31 +4708,31 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="28">
         <v>2233445566</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>169</v>
+      <c r="C5" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E5" s="4">
         <v>324534983</v>
@@ -4023,7 +4741,7 @@
         <v>2022</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H5" s="15">
         <v>600</v>
@@ -4034,31 +4752,31 @@
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="28">
         <v>3344556677</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="28" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4">
         <v>689789920</v>
@@ -4067,7 +4785,7 @@
         <v>2021</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H6" s="15">
         <v>600</v>
@@ -4078,31 +4796,31 @@
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="28">
         <v>3344556677</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>170</v>
+      <c r="C7" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4">
         <v>105798793</v>
@@ -4111,7 +4829,7 @@
         <v>2022</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H7" s="15">
         <v>600</v>
@@ -4122,31 +4840,31 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="28">
         <v>4455667788</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="28" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E8" s="4">
         <v>786789237</v>
@@ -4155,7 +4873,7 @@
         <v>2021</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="H8" s="15">
         <v>600</v>
@@ -4166,31 +4884,31 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="28">
         <v>4455667788</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>171</v>
+      <c r="C9" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E9" s="4">
         <v>529898593</v>
@@ -4199,7 +4917,7 @@
         <v>2022</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H9" s="15">
         <v>600</v>
@@ -4210,31 +4928,31 @@
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="28">
         <v>5566778899</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="28" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E10" s="4">
         <v>798239892</v>
@@ -4243,7 +4961,7 @@
         <v>2021</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H10" s="15">
         <v>600</v>
@@ -4254,31 +4972,31 @@
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="28">
         <v>5566778899</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
+      <c r="C11" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E11" s="4">
         <v>609299233</v>
@@ -4287,7 +5005,7 @@
         <v>2022</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H11" s="15">
         <v>600</v>
@@ -4298,17 +5016,17 @@
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>197</v>
+      <c r="M11" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/data/Business License.xlsx
+++ b/public/assets/data/Business License.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Web Dev\React\tax-system\public\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B88190-F636-4F05-8DC7-71965C1DF802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A31158-0E4A-42B7-A5E9-56A892C47DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="298">
   <si>
     <t>No.</t>
   </si>
@@ -653,6 +653,231 @@
     <t>Total Overdue Case</t>
   </si>
   <si>
+    <t>Syarikat M Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat N Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat O Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat P Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat Q Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat R Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat S Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat T Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat U Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Syarikat V Sdn Bhd</t>
+  </si>
+  <si>
+    <t>23984-A</t>
+  </si>
+  <si>
+    <t>76732-H</t>
+  </si>
+  <si>
+    <t>09131-H</t>
+  </si>
+  <si>
+    <t>91234-A</t>
+  </si>
+  <si>
+    <t>98723-H</t>
+  </si>
+  <si>
+    <t>23481-H</t>
+  </si>
+  <si>
+    <t>39872-H</t>
+  </si>
+  <si>
+    <t>41231-H</t>
+  </si>
+  <si>
+    <t>84122-H</t>
+  </si>
+  <si>
+    <t>48901-H</t>
+  </si>
+  <si>
+    <t>187234 / 0051</t>
+  </si>
+  <si>
+    <t>189345 / 0052</t>
+  </si>
+  <si>
+    <t>164322 / 0053</t>
+  </si>
+  <si>
+    <t>198332 / 0054</t>
+  </si>
+  <si>
+    <t>156321 / 0055</t>
+  </si>
+  <si>
+    <t>175664 / 0056</t>
+  </si>
+  <si>
+    <t>183253 / 0057</t>
+  </si>
+  <si>
+    <t>173232 / 0058</t>
+  </si>
+  <si>
+    <t>145122 / 0059</t>
+  </si>
+  <si>
+    <t>183453 / 0060</t>
+  </si>
+  <si>
+    <t>07/1-44/321</t>
+  </si>
+  <si>
+    <t>07/8-73/322</t>
+  </si>
+  <si>
+    <t>02/6-17/323</t>
+  </si>
+  <si>
+    <t>05/2-28/324</t>
+  </si>
+  <si>
+    <t>07/1-44/322</t>
+  </si>
+  <si>
+    <t>07/8-73/323</t>
+  </si>
+  <si>
+    <t>02/6-17/324</t>
+  </si>
+  <si>
+    <t>05/2-28/325</t>
+  </si>
+  <si>
+    <t>07/1-44/323</t>
+  </si>
+  <si>
+    <t>07/8-73/324</t>
+  </si>
+  <si>
+    <t>Nawfal bin Ma,Roof</t>
+  </si>
+  <si>
+    <t>Sirajuddeen bin Katheer</t>
+  </si>
+  <si>
+    <t>Lokman bin Jejaka</t>
+  </si>
+  <si>
+    <t>Yahaya bin Osman</t>
+  </si>
+  <si>
+    <t>Nerang bin Usop</t>
+  </si>
+  <si>
+    <t>Basuki bin Jebat</t>
+  </si>
+  <si>
+    <t>Raja bin Sugriwa</t>
+  </si>
+  <si>
+    <t>Fawz bin Munjid</t>
+  </si>
+  <si>
+    <t>Samir bin Mujahid</t>
+  </si>
+  <si>
+    <t>Daleel bin Nabeel</t>
+  </si>
+  <si>
+    <t>790621-45-2289</t>
+  </si>
+  <si>
+    <t>780820-45-3452</t>
+  </si>
+  <si>
+    <t>620418-45-2346</t>
+  </si>
+  <si>
+    <t>840831-45-9884</t>
+  </si>
+  <si>
+    <t>780319-45-7493</t>
+  </si>
+  <si>
+    <t>741212-45-2995</t>
+  </si>
+  <si>
+    <t>880503-45-3458</t>
+  </si>
+  <si>
+    <t>790707-45-7924</t>
+  </si>
+  <si>
+    <t>790621-45-2290</t>
+  </si>
+  <si>
+    <t>780820-45-3453</t>
+  </si>
+  <si>
+    <t>5.333346961633607, 103.12317231308664</t>
+  </si>
+  <si>
+    <t>5.335108399267644, 103.12489487500386</t>
+  </si>
+  <si>
+    <t>5.337143866869873, 103.12668948330865</t>
+  </si>
+  <si>
+    <t>5.339963993473459, 103.12783746873875</t>
+  </si>
+  <si>
+    <t>5.33372683736589, 103.12337985059682</t>
+  </si>
+  <si>
+    <t>5.3304343457813665, 103.12080167576941</t>
+  </si>
+  <si>
+    <t>5.330604153847688, 103.12386741228595</t>
+  </si>
+  <si>
+    <t>5.328403107581289, 103.11979282623798</t>
+  </si>
+  <si>
+    <t>5.333819873560804, 103.12520118959952</t>
+  </si>
+  <si>
+    <t>5.337514848131638, 103.12777274756563</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
     <t>780122-45-1238</t>
   </si>
   <si>
@@ -705,21 +930,6 @@
   </si>
   <si>
     <t>6109-6803397</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C13</t>
   </si>
 </sst>
 </file>
@@ -730,7 +940,7 @@
     <numFmt numFmtId="164" formatCode="&quot;RM&quot;#,##0_);[Red]\(&quot;RM&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;RM&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -759,8 +969,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,6 +987,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,22 +1114,59 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB918-6CF2-C84C-BA02-622A62B1D029}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1257,10 +1523,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1274,16 +1540,16 @@
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>161012</v>
-      </c>
-      <c r="G2" s="26">
+        <v>296487</v>
+      </c>
+      <c r="G2" s="39">
         <f ca="1">F2+F3+F4</f>
-        <v>667757</v>
+        <v>656574</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1292,17 +1558,17 @@
       </c>
       <c r="E3" s="3">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F61" ca="1" si="0">RANDBETWEEN(100000,350000)</f>
-        <v>254849</v>
-      </c>
-      <c r="G3" s="26"/>
+        <v>116867</v>
+      </c>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1311,19 +1577,19 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E61" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>251896</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>243220</v>
+      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1331,66 +1597,66 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">RANDBETWEEN(80,300)</f>
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>349616</v>
-      </c>
-      <c r="G5" s="26">
+        <v>344623</v>
+      </c>
+      <c r="G5" s="39">
         <f t="shared" ref="G5" ca="1" si="2">F5+F6+F7</f>
-        <v>976650</v>
+        <v>804456</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D61" ca="1" si="3">RANDBETWEEN(80,300)</f>
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>314237</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>139331</v>
+      </c>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>312797</v>
-      </c>
-      <c r="G7" s="26"/>
+        <v>320502</v>
+      </c>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="40">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1398,66 +1664,66 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>302328</v>
-      </c>
-      <c r="G8" s="26">
+        <v>290101</v>
+      </c>
+      <c r="G8" s="39">
         <f t="shared" ref="G8" ca="1" si="4">F8+F9+F10</f>
-        <v>715741</v>
+        <v>803537</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>234509</v>
-      </c>
-      <c r="G9" s="26"/>
+        <v>180750</v>
+      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>178904</v>
-      </c>
-      <c r="G10" s="26"/>
+        <v>332686</v>
+      </c>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="40">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1465,66 +1731,66 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>203825</v>
-      </c>
-      <c r="G11" s="26">
+        <v>218893</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" ref="G11" ca="1" si="5">F11+F12+F13</f>
-        <v>583855</v>
+        <v>800522</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>182383</v>
-      </c>
-      <c r="G12" s="26"/>
+        <v>297655</v>
+      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>197647</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>283974</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="40">
         <v>5</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1532,66 +1798,66 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>181148</v>
-      </c>
-      <c r="G14" s="26">
+        <v>250007</v>
+      </c>
+      <c r="G14" s="39">
         <f t="shared" ref="G14" ca="1" si="6">F14+F15+F16</f>
-        <v>587822</v>
+        <v>652747</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>167506</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>184235</v>
+      </c>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>239168</v>
-      </c>
-      <c r="G16" s="26"/>
+        <v>218505</v>
+      </c>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="40">
         <v>6</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1599,66 +1865,66 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>243902</v>
-      </c>
-      <c r="G17" s="26">
+        <v>121069</v>
+      </c>
+      <c r="G17" s="39">
         <f t="shared" ref="G17" ca="1" si="7">F17+F18+F19</f>
-        <v>633064</v>
+        <v>708654</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>270587</v>
-      </c>
-      <c r="G18" s="26"/>
+        <v>339441</v>
+      </c>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>118575</v>
-      </c>
-      <c r="G19" s="26"/>
+        <v>248144</v>
+      </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
+      <c r="A20" s="40">
         <v>7</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1666,50 +1932,50 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>154892</v>
-      </c>
-      <c r="G20" s="26">
+        <v>260006</v>
+      </c>
+      <c r="G20" s="39">
         <f t="shared" ref="G20" ca="1" si="8">F20+F21+F22</f>
-        <v>582368</v>
+        <v>794305</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>327251</v>
-      </c>
-      <c r="G21" s="26"/>
+        <v>290621</v>
+      </c>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1717,15 +1983,15 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>100225</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>243678</v>
+      </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="40">
         <v>8</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1733,66 +1999,66 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>179946</v>
-      </c>
-      <c r="G23" s="26">
+        <v>165982</v>
+      </c>
+      <c r="G23" s="39">
         <f t="shared" ref="G23" ca="1" si="9">F23+F24+F25</f>
-        <v>518001</v>
+        <v>568198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>174253</v>
-      </c>
-      <c r="G24" s="26"/>
+        <v>144677</v>
+      </c>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>163802</v>
-      </c>
-      <c r="G25" s="26"/>
+        <v>257539</v>
+      </c>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
+      <c r="A26" s="40">
         <v>9</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1800,66 +2066,66 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>218519</v>
-      </c>
-      <c r="G26" s="26">
+        <v>176182</v>
+      </c>
+      <c r="G26" s="39">
         <f t="shared" ref="G26" ca="1" si="10">F26+F27+F28</f>
-        <v>610833</v>
+        <v>619591</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>248162</v>
-      </c>
-      <c r="G27" s="26"/>
+        <v>275492</v>
+      </c>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>144152</v>
-      </c>
-      <c r="G28" s="26"/>
+        <v>167917</v>
+      </c>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
+      <c r="A29" s="40">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1867,66 +2133,66 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>256246</v>
-      </c>
-      <c r="G29" s="26">
+        <v>214053</v>
+      </c>
+      <c r="G29" s="39">
         <f t="shared" ref="G29" ca="1" si="11">F29+F30+F31</f>
-        <v>755622</v>
+        <v>834650</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>311327</v>
-      </c>
-      <c r="G30" s="26"/>
+        <v>327148</v>
+      </c>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>188049</v>
-      </c>
-      <c r="G31" s="26"/>
+        <v>293449</v>
+      </c>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="23">
+      <c r="A32" s="40">
         <v>11</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1934,66 +2200,66 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>129121</v>
-      </c>
-      <c r="G32" s="26">
+        <v>242323</v>
+      </c>
+      <c r="G32" s="39">
         <f t="shared" ref="G32" ca="1" si="12">F32+F33+F34</f>
-        <v>564086</v>
+        <v>870810</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>223992</v>
-      </c>
-      <c r="G33" s="26"/>
+        <v>342136</v>
+      </c>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>210973</v>
-      </c>
-      <c r="G34" s="26"/>
+        <v>286351</v>
+      </c>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="23">
+      <c r="A35" s="40">
         <v>12</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2001,66 +2267,66 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>300835</v>
-      </c>
-      <c r="G35" s="26">
+        <v>130216</v>
+      </c>
+      <c r="G35" s="39">
         <f t="shared" ref="G35" ca="1" si="13">F35+F36+F37</f>
-        <v>713367</v>
+        <v>656585</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>134337</v>
-      </c>
-      <c r="G36" s="26"/>
+        <v>332545</v>
+      </c>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>278195</v>
-      </c>
-      <c r="G37" s="26"/>
+        <v>193824</v>
+      </c>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="23">
+      <c r="A38" s="40">
         <v>13</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2068,66 +2334,66 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>223309</v>
-      </c>
-      <c r="G38" s="26">
+        <v>260808</v>
+      </c>
+      <c r="G38" s="39">
         <f t="shared" ref="G38" ca="1" si="14">F38+F39+F40</f>
-        <v>596264</v>
+        <v>890774</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>117086</v>
-      </c>
-      <c r="G39" s="26"/>
+        <v>305029</v>
+      </c>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>255869</v>
-      </c>
-      <c r="G40" s="26"/>
+        <v>324937</v>
+      </c>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="23">
+      <c r="A41" s="40">
         <v>14</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2135,66 +2401,66 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>136189</v>
-      </c>
-      <c r="G41" s="26">
+        <v>276473</v>
+      </c>
+      <c r="G41" s="39">
         <f t="shared" ref="G41" ca="1" si="15">F41+F42+F43</f>
-        <v>356541</v>
+        <v>772238</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>113571</v>
-      </c>
-      <c r="G42" s="26"/>
+        <v>324348</v>
+      </c>
+      <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>106781</v>
-      </c>
-      <c r="G43" s="26"/>
+        <v>171417</v>
+      </c>
+      <c r="G43" s="39"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="23">
+      <c r="A44" s="40">
         <v>15</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2202,66 +2468,66 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>151049</v>
-      </c>
-      <c r="G44" s="26">
+        <v>108972</v>
+      </c>
+      <c r="G44" s="39">
         <f t="shared" ref="G44" ca="1" si="16">F44+F45+F46</f>
-        <v>443701</v>
+        <v>715064</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>141708</v>
-      </c>
-      <c r="G45" s="26"/>
+        <v>315248</v>
+      </c>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>150944</v>
-      </c>
-      <c r="G46" s="26"/>
+        <v>290844</v>
+      </c>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="23">
+      <c r="A47" s="40">
         <v>16</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2269,66 +2535,66 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>266910</v>
-      </c>
-      <c r="G47" s="26">
+        <v>233699</v>
+      </c>
+      <c r="G47" s="39">
         <f t="shared" ref="G47" ca="1" si="17">F47+F48+F49</f>
-        <v>524866</v>
+        <v>803254</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>100403</v>
-      </c>
-      <c r="G48" s="26"/>
+        <v>318363</v>
+      </c>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>157553</v>
-      </c>
-      <c r="G49" s="26"/>
+        <v>251192</v>
+      </c>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="24">
+      <c r="A50" s="42">
         <v>17</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2336,50 +2602,50 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>297821</v>
-      </c>
-      <c r="G50" s="27">
+        <v>267179</v>
+      </c>
+      <c r="G50" s="38">
         <f t="shared" ref="G50" ca="1" si="18">F50+F51+F52</f>
-        <v>867434</v>
+        <v>851075</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>264660</v>
-      </c>
-      <c r="G51" s="27"/>
+        <v>250891</v>
+      </c>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="1"/>
@@ -2387,15 +2653,15 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>304953</v>
-      </c>
-      <c r="G52" s="27"/>
+        <v>333005</v>
+      </c>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="23">
+      <c r="A53" s="40">
         <v>18</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2403,66 +2669,66 @@
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>197027</v>
-      </c>
-      <c r="G53" s="26">
+        <v>107068</v>
+      </c>
+      <c r="G53" s="39">
         <f t="shared" ref="G53" ca="1" si="19">F53+F54+F55</f>
-        <v>799240</v>
+        <v>689433</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>327683</v>
-      </c>
-      <c r="G54" s="26"/>
+        <v>276328</v>
+      </c>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>274530</v>
-      </c>
-      <c r="G55" s="26"/>
+        <v>306037</v>
+      </c>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="23">
+      <c r="A56" s="40">
         <v>19</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2470,66 +2736,66 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>136591</v>
-      </c>
-      <c r="G56" s="26">
+        <v>213747</v>
+      </c>
+      <c r="G56" s="39">
         <f t="shared" ref="G56" ca="1" si="20">F56+F57+F58</f>
-        <v>578804</v>
+        <v>622713</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>314408</v>
-      </c>
-      <c r="G57" s="26"/>
+        <v>166729</v>
+      </c>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>127805</v>
-      </c>
-      <c r="G58" s="26"/>
+        <v>242237</v>
+      </c>
+      <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="23">
+      <c r="A59" s="40">
         <v>20</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2537,80 +2803,100 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>324622</v>
-      </c>
-      <c r="G59" s="26">
+        <v>342349</v>
+      </c>
+      <c r="G59" s="39">
         <f t="shared" ref="G59" ca="1" si="21">F59+F60+F61</f>
-        <v>636060</v>
+        <v>637150</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>132775</v>
-      </c>
-      <c r="G60" s="26"/>
+        <v>143742</v>
+      </c>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>178663</v>
-      </c>
-      <c r="G61" s="26"/>
+        <v>151059</v>
+      </c>
+      <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
@@ -2623,40 +2909,20 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2667,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D7D46-21B7-054F-A2A5-55DC0853579C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2714,23 +2980,23 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">RANDBETWEEN(2000,12000)</f>
-        <v>11175</v>
+        <v>12000</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>146</v>
+        <v>906</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>194207</v>
+        <v>328543</v>
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>341541</v>
+        <v>200875</v>
       </c>
       <c r="G2" s="19">
         <f ca="1">RANDBETWEEN(300000,800000)</f>
-        <v>480155</v>
+        <v>342383</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2742,23 +3008,23 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(2000,12000)</f>
-        <v>8165</v>
+        <v>6736</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D21" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:F21" ca="1" si="2">RANDBETWEEN(100000,350000)</f>
-        <v>321823</v>
+        <v>264378</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>294540</v>
+        <v>290081</v>
       </c>
       <c r="G3" s="19">
         <f t="shared" ref="G3:G21" ca="1" si="3">RANDBETWEEN(300000,800000)</f>
-        <v>722145</v>
+        <v>581060</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2770,23 +3036,23 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8362</v>
+        <v>2855</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>944</v>
+        <v>622</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>268612</v>
+        <v>110634</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>276958</v>
+        <v>260394</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>753066</v>
+        <v>691454</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2798,23 +3064,23 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3080</v>
+        <v>10642</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>730</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>236983</v>
+        <v>163420</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>246119</v>
+        <v>324099</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>621793</v>
+        <v>665228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2826,23 +3092,23 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6539</v>
+        <v>5565</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>592</v>
+        <v>442</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>320883</v>
+        <v>258454</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>288552</v>
+        <v>145750</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>474031</v>
+        <v>561189</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2854,23 +3120,23 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8655</v>
+        <v>4450</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>204844</v>
+        <v>156847</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>180780</v>
+        <v>173708</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>358435</v>
+        <v>340848</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2882,23 +3148,23 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8008</v>
+        <v>5190</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>897</v>
+        <v>630</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>264932</v>
+        <v>222964</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>260792</v>
+        <v>189575</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>480658</v>
+        <v>536384</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2910,23 +3176,23 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6018</v>
+        <v>8107</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>171912</v>
+        <v>221645</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>118203</v>
+        <v>333127</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>378192</v>
+        <v>598508</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2938,23 +3204,23 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2464</v>
+        <v>2885</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>814</v>
+        <v>987</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>324293</v>
+        <v>225035</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>272958</v>
+        <v>300406</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>450126</v>
+        <v>453034</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2966,23 +3232,23 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2734</v>
+        <v>6401</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>641</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>201486</v>
+        <v>302440</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>242142</v>
+        <v>259939</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>688686</v>
+        <v>496086</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2994,23 +3260,23 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6682</v>
+        <v>6556</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>848</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>341859</v>
+        <v>192592</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>326133</v>
+        <v>252932</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>631910</v>
+        <v>471843</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3022,23 +3288,23 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5093</v>
+        <v>6100</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>154563</v>
+        <v>284836</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>112365</v>
+        <v>160564</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>352422</v>
+        <v>451848</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3050,23 +3316,23 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8222</v>
+        <v>5660</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>468</v>
+        <v>344</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>278536</v>
+        <v>107645</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>146495</v>
+        <v>137819</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>577599</v>
+        <v>761172</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3078,23 +3344,23 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8680</v>
+        <v>8644</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>103</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>245876</v>
+        <v>224945</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>332435</v>
+        <v>265373</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>642050</v>
+        <v>359961</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3106,23 +3372,23 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3149</v>
+        <v>6305</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>142682</v>
+        <v>127023</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>198839</v>
+        <v>161845</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>653068</v>
+        <v>632283</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3134,23 +3400,23 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4936</v>
+        <v>7916</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>521</v>
+        <v>937</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>306228</v>
+        <v>220521</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>161994</v>
+        <v>163970</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>302017</v>
+        <v>769605</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3162,23 +3428,23 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>6597</v>
+        <v>3506</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>847</v>
+        <v>483</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>230542</v>
+        <v>206628</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>309389</v>
+        <v>262350</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>316871</v>
+        <v>342713</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3190,23 +3456,23 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2792</v>
+        <v>11554</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>873</v>
+        <v>185</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>186093</v>
+        <v>103340</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>112320</v>
+        <v>328245</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>508530</v>
+        <v>701073</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3218,23 +3484,23 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8643</v>
+        <v>4250</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>873</v>
+        <v>553</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>127478</v>
+        <v>290159</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>140554</v>
+        <v>308273</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>666007</v>
+        <v>320779</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3246,23 +3512,23 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6724</v>
+        <v>11685</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>250466</v>
+        <v>192154</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>142068</v>
+        <v>116772</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>426197</v>
+        <v>754795</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3277,50 +3543,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF643C-5C0E-744E-967C-222C017A8BAB}">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.1640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.1640625" customWidth="1"/>
-    <col min="23" max="23" width="35.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="45.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.1640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="35.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3329,90 +3596,93 @@
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3421,90 +3691,93 @@
       <c r="D2" s="3">
         <v>2021</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>600</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>50</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="15">
         <v>80</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>21200</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3513,90 +3786,93 @@
       <c r="D3" s="3">
         <v>2021</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>600</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <v>50</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="15">
+      <c r="N3" s="15">
         <v>80</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>21200</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3605,90 +3881,93 @@
       <c r="D4" s="3">
         <v>2021</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>600</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <v>50</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="15">
+      <c r="N4" s="15">
         <v>80</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>21200</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="X4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3697,90 +3976,93 @@
       <c r="D5" s="3">
         <v>2021</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>600</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>50</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="15">
+      <c r="N5" s="15">
         <v>80</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>21200</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="U5" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="X5" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3789,90 +4071,93 @@
       <c r="D6" s="3">
         <v>2021</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>600</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <v>50</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="15">
         <v>80</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>21200</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3881,90 +4166,93 @@
       <c r="D7" s="3">
         <v>2021</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>600</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <v>50</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
         <v>80</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>21200</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="X7" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3973,90 +4261,93 @@
       <c r="D8" s="3">
         <v>2021</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>600</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <v>50</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="15">
         <v>80</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21200</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="X8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4065,90 +4356,93 @@
       <c r="D9" s="3">
         <v>2021</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>600</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <v>50</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>80</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21200</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="X9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="Y9" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4157,90 +4451,93 @@
       <c r="D10" s="3">
         <v>2021</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H10" s="15">
         <v>600</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <v>50</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="15">
         <v>80</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21200</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="U10" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="X10" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="Y10" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4249,90 +4546,93 @@
       <c r="D11" s="3">
         <v>2021</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="15">
+      <c r="H11" s="15">
         <v>600</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <v>50</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="15">
         <v>80</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>21200</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="X11" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="Y11" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4341,90 +4641,93 @@
       <c r="D12" s="3">
         <v>2021</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="15">
+      <c r="H12" s="15">
         <v>600</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <v>50</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="15">
+      <c r="N12" s="15">
         <v>80</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21200</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="X12" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4433,84 +4736,1048 @@
       <c r="D13" s="3">
         <v>2021</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="15">
+      <c r="H13" s="15">
         <v>600</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <v>50</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="15">
+      <c r="N13" s="15">
         <v>80</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>21200</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="U13" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="X13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="Y13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15">
+        <v>600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="15">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="15">
+        <v>80</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="15">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="15">
+        <v>80</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y15" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="15">
+        <v>600</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="15">
+        <v>50</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="15">
+        <v>80</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y16" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="15">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="15">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="15">
+        <v>80</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y17" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="15">
+        <v>600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="15">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="15">
+        <v>80</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y18" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="15">
+        <v>600</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="15">
+        <v>50</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="15">
+        <v>80</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y19" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="15">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="15">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="15">
+        <v>80</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X20" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y20" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="15">
+        <v>600</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="15">
+        <v>50</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="15">
+        <v>80</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y21" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="15">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="15">
+        <v>50</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="15">
+        <v>80</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y22" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="15">
+        <v>600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="15">
+        <v>50</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="15">
+        <v>80</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="3">
+        <v>21200</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X23" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y23" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="P24" s="27"/>
+      <c r="X24" s="37"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="P25" s="27"/>
+      <c r="X25" s="37"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="X26" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4523,25 +5790,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298924D2-CAB1-6D49-8BED-F5FA94BDC813}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4549,16 +5816,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="29" t="s">
         <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4579,10 +5846,10 @@
       <c r="K1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -4593,16 +5860,16 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="45">
         <v>1122334455</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="30">
         <v>129834985</v>
       </c>
       <c r="F2" s="3">
@@ -4620,16 +5887,16 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="43" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4637,16 +5904,16 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="45">
         <v>1122334455</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="30">
         <v>345938983</v>
       </c>
       <c r="F3" s="3">
@@ -4664,33 +5931,33 @@
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>214</v>
+      <c r="M3" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="45">
         <v>2233445566</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="30">
         <v>398973454</v>
       </c>
       <c r="F4" s="3">
@@ -4708,33 +5975,33 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>215</v>
+      <c r="M4" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="45">
         <v>2233445566</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="30">
         <v>324534983</v>
       </c>
       <c r="F5" s="3">
@@ -4752,33 +6019,33 @@
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>216</v>
+      <c r="M5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="45">
         <v>3344556677</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="30">
         <v>689789920</v>
       </c>
       <c r="F6" s="3">
@@ -4796,33 +6063,33 @@
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>217</v>
+      <c r="M6" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="45">
         <v>3344556677</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="30">
         <v>105798793</v>
       </c>
       <c r="F7" s="3">
@@ -4840,33 +6107,33 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>218</v>
+      <c r="M7" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="45">
         <v>4455667788</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="30">
         <v>786789237</v>
       </c>
       <c r="F8" s="3">
@@ -4884,33 +6151,33 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>219</v>
+      <c r="M8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="45">
         <v>4455667788</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="30">
         <v>529898593</v>
       </c>
       <c r="F9" s="3">
@@ -4928,33 +6195,33 @@
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M9" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>220</v>
+      <c r="M9" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="45">
         <v>5566778899</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="30">
         <v>798239892</v>
       </c>
       <c r="F10" s="3">
@@ -4972,33 +6239,33 @@
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>221</v>
+      <c r="M10" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="45">
         <v>5566778899</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="30">
         <v>609299233</v>
       </c>
       <c r="F11" s="3">
@@ -5016,17 +6283,17 @@
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>222</v>
+      <c r="M11" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/data/Business License.xlsx
+++ b/public/assets/data/Business License.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Web Dev\React\tax-system\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A31158-0E4A-42B7-A5E9-56A892C47DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F94E06-F630-4869-BEE1-458D2B73C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -1145,21 +1145,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1153,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB918-6CF2-C84C-BA02-622A62B1D029}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1523,10 +1523,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="40">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1540,16 +1540,16 @@
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>296487</v>
-      </c>
-      <c r="G2" s="39">
+        <v>124311</v>
+      </c>
+      <c r="G2" s="44">
         <f ca="1">F2+F3+F4</f>
-        <v>656574</v>
+        <v>780233</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1558,17 +1558,17 @@
       </c>
       <c r="E3" s="3">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F61" ca="1" si="0">RANDBETWEEN(100000,350000)</f>
-        <v>116867</v>
-      </c>
-      <c r="G3" s="39"/>
+        <v>349839</v>
+      </c>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E61" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>243220</v>
-      </c>
-      <c r="G4" s="39"/>
+        <v>306083</v>
+      </c>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="40">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1597,66 +1597,66 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">RANDBETWEEN(80,300)</f>
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>344623</v>
-      </c>
-      <c r="G5" s="39">
+        <v>202497</v>
+      </c>
+      <c r="G5" s="44">
         <f t="shared" ref="G5" ca="1" si="2">F5+F6+F7</f>
-        <v>804456</v>
+        <v>708532</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D61" ca="1" si="3">RANDBETWEEN(80,300)</f>
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>139331</v>
-      </c>
-      <c r="G6" s="39"/>
+        <v>163009</v>
+      </c>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>320502</v>
-      </c>
-      <c r="G7" s="39"/>
+        <v>343026</v>
+      </c>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="40">
+      <c r="A8" s="41">
         <v>3</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1664,66 +1664,66 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>290101</v>
-      </c>
-      <c r="G8" s="39">
+        <v>155216</v>
+      </c>
+      <c r="G8" s="44">
         <f t="shared" ref="G8" ca="1" si="4">F8+F9+F10</f>
-        <v>803537</v>
+        <v>826256</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>180750</v>
-      </c>
-      <c r="G9" s="39"/>
+        <v>331882</v>
+      </c>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>332686</v>
-      </c>
-      <c r="G10" s="39"/>
+        <v>339158</v>
+      </c>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="40">
+      <c r="A11" s="41">
         <v>4</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1731,66 +1731,66 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>218893</v>
-      </c>
-      <c r="G11" s="39">
+        <v>345710</v>
+      </c>
+      <c r="G11" s="44">
         <f t="shared" ref="G11" ca="1" si="5">F11+F12+F13</f>
-        <v>800522</v>
+        <v>655430</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>297655</v>
-      </c>
-      <c r="G12" s="39"/>
+        <v>150814</v>
+      </c>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>283974</v>
-      </c>
-      <c r="G13" s="39"/>
+        <v>158906</v>
+      </c>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="40">
+      <c r="A14" s="41">
         <v>5</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1798,66 +1798,66 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>250007</v>
-      </c>
-      <c r="G14" s="39">
+        <v>231926</v>
+      </c>
+      <c r="G14" s="44">
         <f t="shared" ref="G14" ca="1" si="6">F14+F15+F16</f>
-        <v>652747</v>
+        <v>606654</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>184235</v>
-      </c>
-      <c r="G15" s="39"/>
+        <v>213526</v>
+      </c>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>218505</v>
-      </c>
-      <c r="G16" s="39"/>
+        <v>161202</v>
+      </c>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="40">
+      <c r="A17" s="41">
         <v>6</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -1873,58 +1873,58 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>121069</v>
-      </c>
-      <c r="G17" s="39">
+        <v>179952</v>
+      </c>
+      <c r="G17" s="44">
         <f t="shared" ref="G17" ca="1" si="7">F17+F18+F19</f>
-        <v>708654</v>
+        <v>622293</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>339441</v>
-      </c>
-      <c r="G18" s="39"/>
+        <v>140408</v>
+      </c>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>248144</v>
-      </c>
-      <c r="G19" s="39"/>
+        <v>301933</v>
+      </c>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="40">
+      <c r="A20" s="41">
         <v>7</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1932,66 +1932,66 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>260006</v>
-      </c>
-      <c r="G20" s="39">
+        <v>104639</v>
+      </c>
+      <c r="G20" s="44">
         <f t="shared" ref="G20" ca="1" si="8">F20+F21+F22</f>
-        <v>794305</v>
+        <v>499769</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>290621</v>
-      </c>
-      <c r="G21" s="39"/>
+        <v>236324</v>
+      </c>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>243678</v>
-      </c>
-      <c r="G22" s="39"/>
+        <v>158806</v>
+      </c>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="40">
+      <c r="A23" s="41">
         <v>8</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1999,66 +1999,66 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>165982</v>
-      </c>
-      <c r="G23" s="39">
+        <v>293536</v>
+      </c>
+      <c r="G23" s="44">
         <f t="shared" ref="G23" ca="1" si="9">F23+F24+F25</f>
-        <v>568198</v>
+        <v>954308</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>144677</v>
-      </c>
-      <c r="G24" s="39"/>
+        <v>314994</v>
+      </c>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>257539</v>
-      </c>
-      <c r="G25" s="39"/>
+        <v>345778</v>
+      </c>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="40">
+      <c r="A26" s="41">
         <v>9</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2066,66 +2066,66 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>176182</v>
-      </c>
-      <c r="G26" s="39">
+        <v>240891</v>
+      </c>
+      <c r="G26" s="44">
         <f t="shared" ref="G26" ca="1" si="10">F26+F27+F28</f>
-        <v>619591</v>
+        <v>831159</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>275492</v>
-      </c>
-      <c r="G27" s="39"/>
+        <v>249487</v>
+      </c>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>167917</v>
-      </c>
-      <c r="G28" s="39"/>
+        <v>340781</v>
+      </c>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="40">
+      <c r="A29" s="41">
         <v>10</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2133,66 +2133,66 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>214053</v>
-      </c>
-      <c r="G29" s="39">
+        <v>255716</v>
+      </c>
+      <c r="G29" s="44">
         <f t="shared" ref="G29" ca="1" si="11">F29+F30+F31</f>
-        <v>834650</v>
+        <v>583397</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>327148</v>
-      </c>
-      <c r="G30" s="39"/>
+        <v>112099</v>
+      </c>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>293449</v>
-      </c>
-      <c r="G31" s="39"/>
+        <v>215582</v>
+      </c>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="40">
+      <c r="A32" s="41">
         <v>11</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2200,66 +2200,66 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>242323</v>
-      </c>
-      <c r="G32" s="39">
+        <v>202911</v>
+      </c>
+      <c r="G32" s="44">
         <f t="shared" ref="G32" ca="1" si="12">F32+F33+F34</f>
-        <v>870810</v>
+        <v>627090</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>342136</v>
-      </c>
-      <c r="G33" s="39"/>
+        <v>321933</v>
+      </c>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>286351</v>
-      </c>
-      <c r="G34" s="39"/>
+        <v>102246</v>
+      </c>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="40">
+      <c r="A35" s="41">
         <v>12</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2267,66 +2267,66 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>130216</v>
-      </c>
-      <c r="G35" s="39">
+        <v>229263</v>
+      </c>
+      <c r="G35" s="44">
         <f t="shared" ref="G35" ca="1" si="13">F35+F36+F37</f>
-        <v>656585</v>
+        <v>604433</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>332545</v>
-      </c>
-      <c r="G36" s="39"/>
+        <v>264457</v>
+      </c>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>193824</v>
-      </c>
-      <c r="G37" s="39"/>
+        <v>110713</v>
+      </c>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="40">
+      <c r="A38" s="41">
         <v>13</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2334,66 +2334,66 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>260808</v>
-      </c>
-      <c r="G38" s="39">
+        <v>341902</v>
+      </c>
+      <c r="G38" s="44">
         <f t="shared" ref="G38" ca="1" si="14">F38+F39+F40</f>
-        <v>890774</v>
+        <v>862643</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>305029</v>
-      </c>
-      <c r="G39" s="39"/>
+        <v>180349</v>
+      </c>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>324937</v>
-      </c>
-      <c r="G40" s="39"/>
+        <v>340392</v>
+      </c>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="40">
+      <c r="A41" s="41">
         <v>14</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2401,50 +2401,50 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>276473</v>
-      </c>
-      <c r="G41" s="39">
+        <v>121085</v>
+      </c>
+      <c r="G41" s="44">
         <f t="shared" ref="G41" ca="1" si="15">F41+F42+F43</f>
-        <v>772238</v>
+        <v>578911</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>324348</v>
-      </c>
-      <c r="G42" s="39"/>
+        <v>235986</v>
+      </c>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2452,15 +2452,15 @@
       </c>
       <c r="F43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>171417</v>
-      </c>
-      <c r="G43" s="39"/>
+        <v>221840</v>
+      </c>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="40">
+      <c r="A44" s="41">
         <v>15</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2468,66 +2468,66 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>108972</v>
-      </c>
-      <c r="G44" s="39">
+        <v>100101</v>
+      </c>
+      <c r="G44" s="44">
         <f t="shared" ref="G44" ca="1" si="16">F44+F45+F46</f>
-        <v>715064</v>
+        <v>436876</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>315248</v>
-      </c>
-      <c r="G45" s="39"/>
+        <v>144893</v>
+      </c>
+      <c r="G45" s="44"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>290844</v>
-      </c>
-      <c r="G46" s="39"/>
+        <v>191882</v>
+      </c>
+      <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="40">
+      <c r="A47" s="41">
         <v>16</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2535,60 +2535,60 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>233699</v>
-      </c>
-      <c r="G47" s="39">
+        <v>150490</v>
+      </c>
+      <c r="G47" s="44">
         <f t="shared" ref="G47" ca="1" si="17">F47+F48+F49</f>
-        <v>803254</v>
+        <v>677040</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>318363</v>
-      </c>
-      <c r="G48" s="39"/>
+        <v>334344</v>
+      </c>
+      <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>251192</v>
-      </c>
-      <c r="G49" s="39"/>
+        <v>192206</v>
+      </c>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="42">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>267179</v>
-      </c>
-      <c r="G50" s="38">
+        <v>133613</v>
+      </c>
+      <c r="G50" s="45">
         <f t="shared" ref="G50" ca="1" si="18">F50+F51+F52</f>
-        <v>851075</v>
+        <v>683230</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2625,17 +2625,17 @@
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>250891</v>
-      </c>
-      <c r="G51" s="38"/>
+        <v>206900</v>
+      </c>
+      <c r="G51" s="45"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="42"/>
@@ -2645,23 +2645,23 @@
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>333005</v>
-      </c>
-      <c r="G52" s="38"/>
+        <v>342717</v>
+      </c>
+      <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="40">
+      <c r="A53" s="41">
         <v>18</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2669,66 +2669,66 @@
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>107068</v>
-      </c>
-      <c r="G53" s="39">
+        <v>133023</v>
+      </c>
+      <c r="G53" s="44">
         <f t="shared" ref="G53" ca="1" si="19">F53+F54+F55</f>
-        <v>689433</v>
+        <v>505028</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>276328</v>
-      </c>
-      <c r="G54" s="39"/>
+        <v>175859</v>
+      </c>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>306037</v>
-      </c>
-      <c r="G55" s="39"/>
+        <v>196146</v>
+      </c>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="40">
+      <c r="A56" s="41">
         <v>19</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2736,66 +2736,66 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>213747</v>
-      </c>
-      <c r="G56" s="39">
+        <v>215919</v>
+      </c>
+      <c r="G56" s="44">
         <f t="shared" ref="G56" ca="1" si="20">F56+F57+F58</f>
-        <v>622713</v>
+        <v>693245</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>166729</v>
-      </c>
-      <c r="G57" s="39"/>
+        <v>349432</v>
+      </c>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>242237</v>
-      </c>
-      <c r="G58" s="39"/>
+        <v>127894</v>
+      </c>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="40">
+      <c r="A59" s="41">
         <v>20</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2803,100 +2803,80 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>342349</v>
-      </c>
-      <c r="G59" s="39">
+        <v>227658</v>
+      </c>
+      <c r="G59" s="44">
         <f t="shared" ref="G59" ca="1" si="21">F59+F60+F61</f>
-        <v>637150</v>
+        <v>652035</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>143742</v>
-      </c>
-      <c r="G60" s="39"/>
+        <v>155088</v>
+      </c>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>151059</v>
-      </c>
-      <c r="G61" s="39"/>
+        <v>269289</v>
+      </c>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
@@ -2909,20 +2889,40 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D7D46-21B7-054F-A2A5-55DC0853579C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2980,23 +2980,23 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">RANDBETWEEN(2000,12000)</f>
-        <v>12000</v>
+        <v>7986</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>328543</v>
+        <v>347286</v>
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>200875</v>
+        <v>134110</v>
       </c>
       <c r="G2" s="19">
         <f ca="1">RANDBETWEEN(300000,800000)</f>
-        <v>342383</v>
+        <v>778381</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3008,23 +3008,23 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(2000,12000)</f>
-        <v>6736</v>
+        <v>7334</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D21" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>147</v>
+        <v>454</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:F21" ca="1" si="2">RANDBETWEEN(100000,350000)</f>
-        <v>264378</v>
+        <v>115512</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>290081</v>
+        <v>335778</v>
       </c>
       <c r="G3" s="19">
         <f t="shared" ref="G3:G21" ca="1" si="3">RANDBETWEEN(300000,800000)</f>
-        <v>581060</v>
+        <v>406012</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3036,23 +3036,23 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2855</v>
+        <v>10836</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>622</v>
+        <v>229</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>110634</v>
+        <v>156392</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>260394</v>
+        <v>310163</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>691454</v>
+        <v>313951</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3064,23 +3064,23 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10642</v>
+        <v>8744</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>730</v>
+        <v>523</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>163420</v>
+        <v>305642</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>324099</v>
+        <v>231914</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>665228</v>
+        <v>651329</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3092,23 +3092,23 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5565</v>
+        <v>7688</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>442</v>
+        <v>598</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>258454</v>
+        <v>129978</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>145750</v>
+        <v>237804</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>561189</v>
+        <v>718826</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3120,23 +3120,23 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4450</v>
+        <v>10035</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>920</v>
+        <v>609</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>156847</v>
+        <v>172242</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>173708</v>
+        <v>252934</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>340848</v>
+        <v>737536</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -3148,23 +3148,23 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5190</v>
+        <v>4399</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>630</v>
+        <v>475</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>222964</v>
+        <v>245907</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>189575</v>
+        <v>237227</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>536384</v>
+        <v>342807</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -3176,23 +3176,23 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8107</v>
+        <v>10154</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>498</v>
+        <v>868</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>221645</v>
+        <v>157465</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>333127</v>
+        <v>252665</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>598508</v>
+        <v>657326</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3204,23 +3204,23 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2885</v>
+        <v>5987</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>987</v>
+        <v>525</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>225035</v>
+        <v>185816</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>300406</v>
+        <v>190902</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>453034</v>
+        <v>645970</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -3232,23 +3232,23 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6401</v>
+        <v>9851</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>641</v>
+        <v>915</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>302440</v>
+        <v>323232</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>259939</v>
+        <v>143629</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>496086</v>
+        <v>655144</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -3260,23 +3260,23 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6556</v>
+        <v>11167</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>848</v>
+        <v>148</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>192592</v>
+        <v>325274</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>252932</v>
+        <v>194297</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>471843</v>
+        <v>669141</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3288,23 +3288,23 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6100</v>
+        <v>7283</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>284836</v>
+        <v>207342</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>160564</v>
+        <v>308566</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>451848</v>
+        <v>531521</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3316,23 +3316,23 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5660</v>
+        <v>4000</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>107645</v>
+        <v>154581</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>137819</v>
+        <v>310130</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>761172</v>
+        <v>515553</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3344,23 +3344,23 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8644</v>
+        <v>6142</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>224945</v>
+        <v>110812</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>265373</v>
+        <v>105989</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>359961</v>
+        <v>763516</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3372,23 +3372,23 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6305</v>
+        <v>7260</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>749</v>
+        <v>110</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>127023</v>
+        <v>258508</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>161845</v>
+        <v>215147</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>632283</v>
+        <v>751475</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3400,23 +3400,23 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7916</v>
+        <v>6108</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>937</v>
+        <v>702</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>220521</v>
+        <v>298003</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>163970</v>
+        <v>202170</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>769605</v>
+        <v>735946</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3428,23 +3428,23 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3506</v>
+        <v>10705</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>483</v>
+        <v>877</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>206628</v>
+        <v>245447</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>262350</v>
+        <v>242266</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>342713</v>
+        <v>310050</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3456,23 +3456,23 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11554</v>
+        <v>8216</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>665</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>103340</v>
+        <v>162099</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>328245</v>
+        <v>149358</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>701073</v>
+        <v>347863</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3484,23 +3484,23 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4250</v>
+        <v>5176</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>553</v>
+        <v>373</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>290159</v>
+        <v>118180</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>308273</v>
+        <v>336567</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>320779</v>
+        <v>654994</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3512,23 +3512,23 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11685</v>
+        <v>6085</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>914</v>
+        <v>810</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>192154</v>
+        <v>241470</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>116772</v>
+        <v>250258</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>754795</v>
+        <v>625681</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF643C-5C0E-744E-967C-222C017A8BAB}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
@@ -5791,7 +5791,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5860,10 +5860,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="40">
         <v>1122334455</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -5887,16 +5887,16 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="38" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5904,10 +5904,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <v>1122334455</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="38" t="s">
         <v>275</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -5931,16 +5931,16 @@
       <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="38" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5948,10 +5948,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <v>2233445566</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -5975,16 +5975,16 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="38" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5992,10 +5992,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="40">
         <v>2233445566</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="38" t="s">
         <v>276</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -6019,16 +6019,16 @@
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="38" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6036,10 +6036,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="40">
         <v>3344556677</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -6063,16 +6063,16 @@
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="38" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6080,10 +6080,10 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="40">
         <v>3344556677</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="38" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -6107,16 +6107,16 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6124,10 +6124,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="40">
         <v>4455667788</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="38" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -6151,16 +6151,16 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="38" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6168,10 +6168,10 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="40">
         <v>4455667788</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="38" t="s">
         <v>278</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6195,16 +6195,16 @@
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="38" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6212,10 +6212,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <v>5566778899</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -6239,16 +6239,16 @@
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="38" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6256,10 +6256,10 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <v>5566778899</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="38" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -6283,16 +6283,16 @@
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="38" t="s">
         <v>297</v>
       </c>
     </row>

--- a/public/assets/data/Business License.xlsx
+++ b/public/assets/data/Business License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Web Dev\React\tax-system\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F94E06-F630-4869-BEE1-458D2B73C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8B8C32-E226-48BF-8AE6-DD7F3871D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8E89FA64-FD5D-7044-A3F7-FA21A61CA12E}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -1154,19 +1154,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BB918-6CF2-C84C-BA02-622A62B1D029}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1523,10 +1523,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="41">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1540,16 +1540,16 @@
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>124311</v>
-      </c>
-      <c r="G2" s="44">
+        <v>281039</v>
+      </c>
+      <c r="G2" s="42">
         <f ca="1">F2+F3+F4</f>
-        <v>780233</v>
+        <v>863695</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1558,17 +1558,17 @@
       </c>
       <c r="E3" s="3">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F61" ca="1" si="0">RANDBETWEEN(100000,350000)</f>
-        <v>349839</v>
-      </c>
-      <c r="G3" s="44"/>
+        <v>306688</v>
+      </c>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E61" ca="1" si="1">RANDBETWEEN(10,50)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>306083</v>
-      </c>
-      <c r="G4" s="44"/>
+        <v>275968</v>
+      </c>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="41">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1597,66 +1597,66 @@
       </c>
       <c r="D5" s="3">
         <f ca="1">RANDBETWEEN(80,300)</f>
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>202497</v>
-      </c>
-      <c r="G5" s="44">
+        <v>228143</v>
+      </c>
+      <c r="G5" s="42">
         <f t="shared" ref="G5" ca="1" si="2">F5+F6+F7</f>
-        <v>708532</v>
+        <v>777290</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D61" ca="1" si="3">RANDBETWEEN(80,300)</f>
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>163009</v>
-      </c>
-      <c r="G6" s="44"/>
+        <v>292576</v>
+      </c>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>343026</v>
-      </c>
-      <c r="G7" s="44"/>
+        <v>256571</v>
+      </c>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="41">
+      <c r="A8" s="43">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1664,66 +1664,66 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>155216</v>
-      </c>
-      <c r="G8" s="44">
+        <v>167436</v>
+      </c>
+      <c r="G8" s="42">
         <f t="shared" ref="G8" ca="1" si="4">F8+F9+F10</f>
-        <v>826256</v>
+        <v>553862</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>331882</v>
-      </c>
-      <c r="G9" s="44"/>
+        <v>238411</v>
+      </c>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>339158</v>
-      </c>
-      <c r="G10" s="44"/>
+        <v>148015</v>
+      </c>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="43">
         <v>4</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1731,66 +1731,66 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>345710</v>
-      </c>
-      <c r="G11" s="44">
+        <v>251916</v>
+      </c>
+      <c r="G11" s="42">
         <f t="shared" ref="G11" ca="1" si="5">F11+F12+F13</f>
-        <v>655430</v>
+        <v>575964</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>150814</v>
-      </c>
-      <c r="G12" s="44"/>
+        <v>219463</v>
+      </c>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>158906</v>
-      </c>
-      <c r="G13" s="44"/>
+        <v>104585</v>
+      </c>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="41">
+      <c r="A14" s="43">
         <v>5</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1798,66 +1798,66 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>231926</v>
-      </c>
-      <c r="G14" s="44">
+        <v>139551</v>
+      </c>
+      <c r="G14" s="42">
         <f t="shared" ref="G14" ca="1" si="6">F14+F15+F16</f>
-        <v>606654</v>
+        <v>546144</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>213526</v>
-      </c>
-      <c r="G15" s="44"/>
+        <v>134708</v>
+      </c>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>161202</v>
-      </c>
-      <c r="G16" s="44"/>
+        <v>271885</v>
+      </c>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="41">
+      <c r="A17" s="43">
         <v>6</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1865,66 +1865,66 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>179952</v>
-      </c>
-      <c r="G17" s="44">
+        <v>193339</v>
+      </c>
+      <c r="G17" s="42">
         <f t="shared" ref="G17" ca="1" si="7">F17+F18+F19</f>
-        <v>622293</v>
+        <v>766944</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>140408</v>
-      </c>
-      <c r="G18" s="44"/>
+        <v>276506</v>
+      </c>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>301933</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>297099</v>
+      </c>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="41">
+      <c r="A20" s="43">
         <v>7</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1932,66 +1932,66 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>104639</v>
-      </c>
-      <c r="G20" s="44">
+        <v>231698</v>
+      </c>
+      <c r="G20" s="42">
         <f t="shared" ref="G20" ca="1" si="8">F20+F21+F22</f>
-        <v>499769</v>
+        <v>664433</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>236324</v>
-      </c>
-      <c r="G21" s="44"/>
+        <v>305743</v>
+      </c>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>158806</v>
-      </c>
-      <c r="G22" s="44"/>
+        <v>126992</v>
+      </c>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="41">
+      <c r="A23" s="43">
         <v>8</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1999,66 +1999,66 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>293536</v>
-      </c>
-      <c r="G23" s="44">
+        <v>276899</v>
+      </c>
+      <c r="G23" s="42">
         <f t="shared" ref="G23" ca="1" si="9">F23+F24+F25</f>
-        <v>954308</v>
+        <v>833533</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>314994</v>
-      </c>
-      <c r="G24" s="44"/>
+        <v>269223</v>
+      </c>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>345778</v>
-      </c>
-      <c r="G25" s="44"/>
+        <v>287411</v>
+      </c>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="41">
+      <c r="A26" s="43">
         <v>9</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2066,66 +2066,66 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>240891</v>
-      </c>
-      <c r="G26" s="44">
+        <v>334363</v>
+      </c>
+      <c r="G26" s="42">
         <f t="shared" ref="G26" ca="1" si="10">F26+F27+F28</f>
-        <v>831159</v>
+        <v>857309</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>249487</v>
-      </c>
-      <c r="G27" s="44"/>
+        <v>329296</v>
+      </c>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>340781</v>
-      </c>
-      <c r="G28" s="44"/>
+        <v>193650</v>
+      </c>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="41">
+      <c r="A29" s="43">
         <v>10</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2133,66 +2133,66 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>255716</v>
-      </c>
-      <c r="G29" s="44">
+        <v>100983</v>
+      </c>
+      <c r="G29" s="42">
         <f t="shared" ref="G29" ca="1" si="11">F29+F30+F31</f>
-        <v>583397</v>
+        <v>703393</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>112099</v>
-      </c>
-      <c r="G30" s="44"/>
+        <v>259656</v>
+      </c>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>215582</v>
-      </c>
-      <c r="G31" s="44"/>
+        <v>342754</v>
+      </c>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="41">
+      <c r="A32" s="43">
         <v>11</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2200,66 +2200,66 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>202911</v>
-      </c>
-      <c r="G32" s="44">
+        <v>262677</v>
+      </c>
+      <c r="G32" s="42">
         <f t="shared" ref="G32" ca="1" si="12">F32+F33+F34</f>
-        <v>627090</v>
+        <v>826610</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>321933</v>
-      </c>
-      <c r="G33" s="44"/>
+        <v>271878</v>
+      </c>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>102246</v>
-      </c>
-      <c r="G34" s="44"/>
+        <v>292055</v>
+      </c>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="41">
+      <c r="A35" s="43">
         <v>12</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2267,66 +2267,66 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>229263</v>
-      </c>
-      <c r="G35" s="44">
+        <v>207990</v>
+      </c>
+      <c r="G35" s="42">
         <f t="shared" ref="G35" ca="1" si="13">F35+F36+F37</f>
-        <v>604433</v>
+        <v>558561</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>264457</v>
-      </c>
-      <c r="G36" s="44"/>
+        <v>133711</v>
+      </c>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>216860</v>
+      </c>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="43">
         <v>13</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>110713</v>
-      </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="41">
-        <v>13</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2334,66 +2334,66 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>341902</v>
-      </c>
-      <c r="G38" s="44">
+        <v>121449</v>
+      </c>
+      <c r="G38" s="42">
         <f t="shared" ref="G38" ca="1" si="14">F38+F39+F40</f>
-        <v>862643</v>
+        <v>582712</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>180349</v>
-      </c>
-      <c r="G39" s="44"/>
+        <v>128292</v>
+      </c>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>340392</v>
-      </c>
-      <c r="G40" s="44"/>
+        <v>332971</v>
+      </c>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="41">
+      <c r="A41" s="43">
         <v>14</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2401,66 +2401,66 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>121085</v>
-      </c>
-      <c r="G41" s="44">
+        <v>182303</v>
+      </c>
+      <c r="G41" s="42">
         <f t="shared" ref="G41" ca="1" si="15">F41+F42+F43</f>
-        <v>578911</v>
+        <v>743333</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>235986</v>
-      </c>
-      <c r="G42" s="44"/>
+        <v>258414</v>
+      </c>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>221840</v>
-      </c>
-      <c r="G43" s="44"/>
+        <v>302616</v>
+      </c>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="41">
+      <c r="A44" s="43">
         <v>15</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2468,66 +2468,66 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>100101</v>
-      </c>
-      <c r="G44" s="44">
+        <v>210284</v>
+      </c>
+      <c r="G44" s="42">
         <f t="shared" ref="G44" ca="1" si="16">F44+F45+F46</f>
-        <v>436876</v>
+        <v>654352</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>144893</v>
-      </c>
-      <c r="G45" s="44"/>
+        <v>215804</v>
+      </c>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>191882</v>
-      </c>
-      <c r="G46" s="44"/>
+        <v>228264</v>
+      </c>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="41">
+      <c r="A47" s="43">
         <v>16</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2535,66 +2535,66 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>150490</v>
-      </c>
-      <c r="G47" s="44">
+        <v>255950</v>
+      </c>
+      <c r="G47" s="42">
         <f t="shared" ref="G47" ca="1" si="17">F47+F48+F49</f>
-        <v>677040</v>
+        <v>711628</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>334344</v>
-      </c>
-      <c r="G48" s="44"/>
+        <v>253773</v>
+      </c>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>192206</v>
-      </c>
-      <c r="G49" s="44"/>
+        <v>201905</v>
+      </c>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="42">
+      <c r="A50" s="45">
         <v>17</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2602,66 +2602,66 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>133613</v>
-      </c>
-      <c r="G50" s="45">
+        <v>287875</v>
+      </c>
+      <c r="G50" s="41">
         <f t="shared" ref="G50" ca="1" si="18">F50+F51+F52</f>
-        <v>683230</v>
+        <v>740824</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>206900</v>
-      </c>
-      <c r="G51" s="45"/>
+        <v>295012</v>
+      </c>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>342717</v>
-      </c>
-      <c r="G52" s="45"/>
+        <v>157937</v>
+      </c>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="41">
+      <c r="A53" s="43">
         <v>18</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2669,66 +2669,66 @@
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>133023</v>
-      </c>
-      <c r="G53" s="44">
+        <v>206705</v>
+      </c>
+      <c r="G53" s="42">
         <f t="shared" ref="G53" ca="1" si="19">F53+F54+F55</f>
-        <v>505028</v>
+        <v>825015</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>175859</v>
-      </c>
-      <c r="G54" s="44"/>
+        <v>328040</v>
+      </c>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>196146</v>
-      </c>
-      <c r="G55" s="44"/>
+        <v>290270</v>
+      </c>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="41">
+      <c r="A56" s="43">
         <v>19</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2736,66 +2736,66 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>215919</v>
-      </c>
-      <c r="G56" s="44">
+        <v>312272</v>
+      </c>
+      <c r="G56" s="42">
         <f t="shared" ref="G56" ca="1" si="20">F56+F57+F58</f>
-        <v>693245</v>
+        <v>692842</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>349432</v>
-      </c>
-      <c r="G57" s="44"/>
+        <v>169568</v>
+      </c>
+      <c r="G57" s="42"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>127894</v>
-      </c>
-      <c r="G58" s="44"/>
+        <v>211002</v>
+      </c>
+      <c r="G58" s="42"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="41">
+      <c r="A59" s="43">
         <v>20</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2803,80 +2803,100 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>227658</v>
-      </c>
-      <c r="G59" s="44">
+        <v>115643</v>
+      </c>
+      <c r="G59" s="42">
         <f t="shared" ref="G59" ca="1" si="21">F59+F60+F61</f>
-        <v>652035</v>
+        <v>533822</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>155088</v>
-      </c>
-      <c r="G60" s="44"/>
+        <v>194462</v>
+      </c>
+      <c r="G60" s="42"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>269289</v>
-      </c>
-      <c r="G61" s="44"/>
+        <v>223717</v>
+      </c>
+      <c r="G61" s="42"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
@@ -2889,40 +2909,20 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D7D46-21B7-054F-A2A5-55DC0853579C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2980,23 +2980,23 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">RANDBETWEEN(2000,12000)</f>
-        <v>7986</v>
+        <v>5622</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>965</v>
+        <v>777</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>347286</v>
+        <v>108648</v>
       </c>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(100000,350000)</f>
-        <v>134110</v>
+        <v>251646</v>
       </c>
       <c r="G2" s="19">
         <f ca="1">RANDBETWEEN(300000,800000)</f>
-        <v>778381</v>
+        <v>755099</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3008,23 +3008,23 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(2000,12000)</f>
-        <v>7334</v>
+        <v>11092</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D21" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>454</v>
+        <v>996</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:F21" ca="1" si="2">RANDBETWEEN(100000,350000)</f>
-        <v>115512</v>
+        <v>123725</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>335778</v>
+        <v>188068</v>
       </c>
       <c r="G3" s="19">
         <f t="shared" ref="G3:G21" ca="1" si="3">RANDBETWEEN(300000,800000)</f>
-        <v>406012</v>
+        <v>546202</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3036,23 +3036,23 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10836</v>
+        <v>10087</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>490</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>156392</v>
+        <v>340775</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>310163</v>
+        <v>182877</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>313951</v>
+        <v>366737</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3064,23 +3064,23 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8744</v>
+        <v>8843</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>523</v>
+        <v>770</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>305642</v>
+        <v>322363</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>231914</v>
+        <v>292386</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>651329</v>
+        <v>503427</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3092,23 +3092,23 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7688</v>
+        <v>2714</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>129978</v>
+        <v>108306</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>237804</v>
+        <v>158653</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>718826</v>
+        <v>300754</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3120,23 +3120,23 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10035</v>
+        <v>10532</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>172242</v>
+        <v>283977</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>252934</v>
+        <v>327152</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>737536</v>
+        <v>411803</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -3148,23 +3148,23 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4399</v>
+        <v>10227</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>475</v>
+        <v>882</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>245907</v>
+        <v>284039</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>237227</v>
+        <v>271368</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>342807</v>
+        <v>580567</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -3176,23 +3176,23 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10154</v>
+        <v>10877</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>868</v>
+        <v>310</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>157465</v>
+        <v>176484</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>252665</v>
+        <v>200483</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>657326</v>
+        <v>570661</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3204,23 +3204,23 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5987</v>
+        <v>2285</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>217</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>185816</v>
+        <v>216547</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>190902</v>
+        <v>122830</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>645970</v>
+        <v>533797</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -3232,23 +3232,23 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9851</v>
+        <v>11752</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>915</v>
+        <v>537</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>323232</v>
+        <v>297219</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>143629</v>
+        <v>312097</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>655144</v>
+        <v>370346</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -3260,23 +3260,23 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11167</v>
+        <v>4969</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>791</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>325274</v>
+        <v>349825</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>194297</v>
+        <v>326931</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>669141</v>
+        <v>403896</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3288,23 +3288,23 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7283</v>
+        <v>8807</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>528</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>207342</v>
+        <v>156969</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>308566</v>
+        <v>174339</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>531521</v>
+        <v>678474</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3316,23 +3316,23 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>10818</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>558</v>
+        <v>220</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>154581</v>
+        <v>223534</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>310130</v>
+        <v>143221</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>515553</v>
+        <v>702995</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3344,23 +3344,23 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6142</v>
+        <v>10554</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>927</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>110812</v>
+        <v>217872</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>105989</v>
+        <v>201827</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>763516</v>
+        <v>791594</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3372,23 +3372,23 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7260</v>
+        <v>10294</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>974</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>258508</v>
+        <v>249275</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>215147</v>
+        <v>242029</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>751475</v>
+        <v>638593</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3400,23 +3400,23 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6108</v>
+        <v>7390</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>298003</v>
+        <v>116648</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>202170</v>
+        <v>106529</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>735946</v>
+        <v>695122</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3428,23 +3428,23 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>10705</v>
+        <v>8965</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>877</v>
+        <v>695</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>245447</v>
+        <v>260295</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>242266</v>
+        <v>221964</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>310050</v>
+        <v>756016</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3456,23 +3456,23 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8216</v>
+        <v>8336</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>665</v>
+        <v>958</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>162099</v>
+        <v>259353</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>149358</v>
+        <v>190648</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>347863</v>
+        <v>475064</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3484,23 +3484,23 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5176</v>
+        <v>5204</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>373</v>
+        <v>952</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>118180</v>
+        <v>271644</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>336567</v>
+        <v>187118</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>654994</v>
+        <v>370614</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3512,23 +3512,23 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6085</v>
+        <v>6003</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>810</v>
+        <v>282</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>241470</v>
+        <v>264996</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>250258</v>
+        <v>219216</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>625681</v>
+        <v>560406</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
